--- a/portalCheck.xlsx
+++ b/portalCheck.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\hansol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\hansol\workspace\portalChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,348 +23,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단국독서클럽 모집 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>[생활관] 2018-1학기 유학생 생활관 자비 납부자 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대학생 불법피라미드 피해예방 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>[국제] 2018-2학기 영어권 파견 교환 및 방문학생 선발안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018년 1학기 국가장학금 신청자 가구원 동의 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018 – 1학기 단국대학교 취업동아리 007up 스터디원 모집</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018 년도 1학기 교육대학원 원우회실 알바 구합니다</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경기도 용인시 처인구 지역 카풀모집합니다!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>운동장 농구코트쪽에서 로레알 틴트 주웠습니다</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>교직관련 서적 팝니다.(교육평가, 교육심리, 교육과정, 교육공학, 교육사회, 교육철학)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단대고시텔 /남녀층구분운영/개별난방</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>**신축원룸/ 단국대초인접/연세450가능**</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018학년도 1학기 대학원 외국어 자격시험 대체특강 접수 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018년 3월 6일 채용정보</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018년도 1학기 대학원생 대상 (공인토익/공인토익스피킹/OPIc 및 기타 자격증) 시험 지원 실시 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>[공통] 2018학년도 전기 교육실습영역 면제 신청 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>문화관리학과(문화행정정책전공) 강의실 변경사항</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>[신입생]학생증 발급 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018년 1학기 신입생 및 재학생 오리엔테이션 사진</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018학년도 1학기 개강총회 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>[BK21+] 2018학년도 1학기 연구장학생 선발 결과</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018학년도 전기 신입생 환영회 안내</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H47" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>2018-전기 신입생 학생증 수령 안내</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>정보기획팀 국가근로장학생 활동 기록지(2018년 3월)</t>
   </si>
   <si>
     <t>게시판 체크 목록</t>
-  </si>
-  <si>
-    <t>날짜</t>
   </si>
   <si>
     <t>대분류</t>
@@ -373,22 +38,13 @@
     <t>소분류</t>
   </si>
   <si>
-    <t>3월8일</t>
-  </si>
-  <si>
     <t>대표홈페이지</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>PORTAL</t>
   </si>
   <si>
     <t>일반대학원</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>경영대학원</t>
@@ -450,19 +106,16 @@
   <si>
     <t>VOC - Q&amp;A</t>
   </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -513,13 +166,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -542,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -586,79 +232,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -935,154 +522,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,12 +1116,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1451,864 +1150,570 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="8" t="str">
         <f>HYPERLINK("http://www.dankook.ac.kr/web/kor/-390","공지사항(일반,특강,행사,채용,구매/입찰)")</f>
         <v>공지사항(일반,특강,행사,채용,구매/입찰)</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A6" s="20">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="str">
+      <c r="B6" s="30"/>
+      <c r="C6" s="10" t="str">
         <f>HYPERLINK("http://www.dankook.ac.kr/web/kor/-386","유학생공지사항")</f>
         <v>유학생공지사항</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A7" s="20">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="25" t="str">
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-2","포털공지")</f>
         <v>포털공지</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="20">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="22" t="str">
+      <c r="B8" s="25"/>
+      <c r="C8" s="10" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-7","학사공지")</f>
         <v>학사공지</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22" t="str">
+      <c r="B9" s="25"/>
+      <c r="C9" s="10" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-6","장학공지")</f>
         <v>장학공지</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="20">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="22" t="str">
+      <c r="B10" s="25"/>
+      <c r="C10" s="10" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-","행사 · 참여 게시판")</f>
         <v>행사 · 참여 게시판</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="20">
-        <v>7</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="22" t="str">
+      <c r="B11" s="25"/>
+      <c r="C11" s="10" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-10","웅성웅성(죽전)")</f>
         <v>웅성웅성(죽전)</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="20">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="str">
+      <c r="B12" s="25"/>
+      <c r="C12" s="12" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-19","웅성웅성(천안)")</f>
         <v>웅성웅성(천안)</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="20">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="str">
+      <c r="B13" s="25"/>
+      <c r="C13" s="12" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-11","분실물/유실물")</f>
         <v>분실물/유실물</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="20">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="str">
+      <c r="B14" s="25"/>
+      <c r="C14" s="12" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-12","벼룩시장")</f>
         <v>벼룩시장</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="20">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="str">
+      <c r="B15" s="25"/>
+      <c r="C15" s="12" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-13","하숙자취방정보(죽전)")</f>
         <v>하숙자취방정보(죽전)</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A16" s="20">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="str">
+      <c r="B16" s="24"/>
+      <c r="C16" s="13" t="str">
         <f>HYPERLINK("https://portal.dankook.ac.kr/web/portal/-20","하숙자취방정보(천안)")</f>
         <v>하숙자취방정보(천안)</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A17" s="20">
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22" t="str">
+      <c r="B17" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/grad/-22","공지사항")</f>
         <v>공지사항</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="20">
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="22" t="str">
+      <c r="B18" s="33"/>
+      <c r="C18" s="10" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/grad/-49","지원자 공지사항")</f>
         <v>지원자 공지사항</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A19" s="20">
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="27" t="str">
+      <c r="B19" s="33"/>
+      <c r="C19" s="12" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/grad/-21","서식자료실")</f>
         <v>서식자료실</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A20" s="20">
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="27" t="str">
+      <c r="B20" s="33"/>
+      <c r="C20" s="12" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/grad/-24","정보마당")</f>
         <v>정보마당</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A21" s="20">
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="29" t="str">
+      <c r="B21" s="34"/>
+      <c r="C21" s="13" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/grad/-25","학생회게시판")</f>
         <v>학생회게시판</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="20">
-        <v>18</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="25" t="str">
+      <c r="C22" s="11" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/giba/-23","공지사항")</f>
         <v>공지사항</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="20">
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="str">
+      <c r="B23" s="24"/>
+      <c r="C23" s="13" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/giba/-21","서식자료실")</f>
         <v>서식자료실</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="20">
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="25" t="str">
+      <c r="B24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/gedu/-23","공지사항")</f>
         <v>공지사항</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="20">
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="str">
+      <c r="B25" s="24"/>
+      <c r="C25" s="13" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/gedu/-25","학생회게시판")</f>
         <v>학생회게시판</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A26" s="20">
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="25" t="str">
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/ginter/notice","Notice")</f>
         <v>Notice</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A27" s="20">
+      <c r="D26" s="41"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="str">
+      <c r="B27" s="25"/>
+      <c r="C27" s="12" t="str">
         <f>HYPERLINK("http://cms.dankook.ac.kr/web/ginter/forms","Forms")</f>
         <v>Forms</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36" t="s">
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A28" s="20">
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="42"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A29" s="20">
+      <c r="C47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A48" s="9">
+        <v>44</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A30" s="20">
+      <c r="C49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A50" s="9">
+        <v>46</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="41"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="42"/>
+    </row>
+    <row r="52" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A52" s="18">
+        <v>48</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A31" s="20">
-        <v>27</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A32" s="20">
-        <v>28</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A33" s="20">
-        <v>29</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A34" s="20">
-        <v>30</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A35" s="20">
-        <v>31</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A36" s="20">
-        <v>32</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A37" s="20">
-        <v>33</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A38" s="20">
-        <v>34</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A39" s="20">
-        <v>35</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A40" s="20">
-        <v>36</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A41" s="20">
-        <v>37</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A42" s="20">
-        <v>38</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A43" s="20">
-        <v>39</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A44" s="20">
-        <v>40</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A45" s="20">
-        <v>41</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A46" s="20">
-        <v>42</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A47" s="20">
-        <v>43</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A48" s="20">
-        <v>44</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A49" s="20">
-        <v>45</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A50" s="20">
-        <v>46</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A51" s="20">
-        <v>47</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A52" s="45">
-        <v>48</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="47" t="str">
+      <c r="C52" s="20" t="str">
         <f>HYPERLINK("https://voc.dankook.ac.kr/tiad/vocm/findVocList.do?_view=ok","Q&amp;A")</f>
         <v>Q&amp;A</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48" t="s">
-        <v>7</v>
-      </c>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="D53" s="2"/>
@@ -8947,12 +8352,12 @@
       <c r="H1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
+  <mergeCells count="17">
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B16"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
@@ -8960,14 +8365,13 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1"/>
     <hyperlink ref="C29" r:id="rId2"/>
@@ -8995,7 +8399,7 @@
     <hyperlink ref="C51" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>